--- a/data/Lowes_Database.xlsx
+++ b/data/Lowes_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Master_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="13_ncr:1_{E45B4535-7667-4474-88D9-1D8CCBF59590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A0F9548-A8C1-4070-8375-A164BDB66EDB}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{13F58DC6-3F56-493C-807C-4235FD2E05D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F90016C-26D5-4E69-B474-5F1B9C7C5FBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{972418CC-E33B-4616-97B4-BE94CE718AFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{972418CC-E33B-4616-97B4-BE94CE718AFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Competitors" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$1:$N$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$N$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mansfield!$A$1:$N$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="218">
   <si>
     <t>Fabricante</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Alto</t>
   </si>
   <si>
-    <t>Mansfield Alto CTK 12 ADA RF 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Alto-174-1-28-Round-SmartHeight-8482-Toilet-Combination/5002186849</t>
   </si>
   <si>
@@ -113,21 +110,12 @@
     <t>5130CTK</t>
   </si>
   <si>
-    <t>Mansfield Alto CTK 12 Std RF 1,28 gpf</t>
-  </si>
-  <si>
-    <t>https://www.lowes.com/pd/Mansfield-Alto-White-WaterSense-Round-Standard-Height-2-piece-Toilet-12-in-Rough-In-Size/1001030678</t>
-  </si>
-  <si>
     <t>4115-3106</t>
   </si>
   <si>
     <t>Barret</t>
   </si>
   <si>
-    <t>Mansfield Barret CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Barrett-White-Elongated-Chair-Height-2-Piece-WaterSense-Toilet-12-in-Rough-In-Size-ADA-Compliant/5005480077</t>
   </si>
   <si>
@@ -137,18 +125,12 @@
     <t>Brentwood</t>
   </si>
   <si>
-    <t>Mansfield Brentwood CTK 12 ADA EL 1,6 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Brentwood-White-Elongated-Comfort-Height-2-Piece-Toilet-12-in-Rough-In-Size-ADA-Compliant/5001176259</t>
   </si>
   <si>
     <t>5148CTK</t>
   </si>
   <si>
-    <t>Mansfield Brentwood CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Brentwood-White-WaterSense-Elongated-Comfort-Height-2-Piece-Toilet-12-in-Rough-In-Size-ADA-Compliant/5001176257</t>
   </si>
   <si>
@@ -158,9 +140,6 @@
     <t>Broadway</t>
   </si>
   <si>
-    <t>Mansfield Broadway CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Broadway-8482-1-28-Elongated-SmartHeight-8482-Complete-Toilet-Kit/5002187709</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
     <t>Cascade</t>
   </si>
   <si>
-    <t>Mansfield Cascade CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Cascade-White-WaterSense-Elongated-Comfort-Height-2-Piece-Toilet-12-in-Rough-In-Size-ADA-Compliant/1003164754</t>
   </si>
   <si>
@@ -182,9 +158,6 @@
     <t>Denali</t>
   </si>
   <si>
-    <t>Mansfield Denali CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Denali-White-WaterSense-Elongated-Comfort-Height-2-Piece-Vitreous-China-Toilet-12-in-Rough-In-Size-with-Slow-Close-ADA-Compliant/1002969006</t>
   </si>
   <si>
@@ -200,9 +173,6 @@
     <t>Juvenile - children</t>
   </si>
   <si>
-    <t>Mansfield Elementary CTK 10 Juvenile - children RF 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Elementary-174-1-28-Round-Juvenile-Toilet-Combination/5002178749</t>
   </si>
   <si>
@@ -218,9 +188,6 @@
     <t>1,1/1,6</t>
   </si>
   <si>
-    <t>Mansfield Enso CTK 12 Std - Smartheight EL 1,1 gpf/1,6 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Enso-174-Dual-Flush-Elongated-SmartHeight-8482-Toilet-Combination/5003105879</t>
   </si>
   <si>
@@ -230,9 +197,6 @@
     <t>Maverick</t>
   </si>
   <si>
-    <t>Mansfield Maverick CTK 12 Std - Smartheight EL 1</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Maverick-8482-1-0-Elongated-SmartHeight-8482-Toilet-Combination/5002187719</t>
   </si>
   <si>
@@ -242,9 +206,6 @@
     <t>Nyren</t>
   </si>
   <si>
-    <t>Mansfield Nyren CTK 12 Std EL 1,6 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Nyren-8482-Dual-Flush-Elongated-Tankless-Smart-Toilet/5003101913</t>
   </si>
   <si>
@@ -254,18 +215,12 @@
     <t>Pro-Fit</t>
   </si>
   <si>
-    <t>Mansfield Pro-Fit CTK 12 Std EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Pro-Fit-White-WaterSense-Elongated-Standard-Height-2-Piece-Toilet-12-in-Rough-In-Size/5001993525</t>
   </si>
   <si>
     <t>148-153</t>
   </si>
   <si>
-    <t>Mansfield Quantum One CTK 12 ADA EL 1</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-QuantumOne-8482-1-0-Elongated-SmartHeight-8482-Toilet-Combination/5002187713</t>
   </si>
   <si>
@@ -284,27 +239,18 @@
     <t>5384DFCTK</t>
   </si>
   <si>
-    <t>Mansfield Summit CTK 12 ADA EL 1,1 gpf/1,6 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Summit-White-WaterSense-Dual-Flush-Elongated-Comfort-Height-2-Piece-Toilet-12-in-Rough-In-Size-ADA-Compliant/5001993529</t>
   </si>
   <si>
     <t>5385CTK</t>
   </si>
   <si>
-    <t>Mansfield Summit CTK 10 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Summit-White-WaterSense-Elongated-Comfort-Height-2-Piece-Toilet-10-in-Rough-In-Size-ADA-Compliant/5001993545</t>
   </si>
   <si>
     <t>5384CTK</t>
   </si>
   <si>
-    <t>Mansfield Summit CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Summit-White-WaterSense-Elongated-Comfort-Height-2-Piece-Vitreous-China-Toilet-12-in-Rough-In-Size-with-Slow-Close-ADA-Compliant/1002969002</t>
   </si>
   <si>
@@ -317,9 +263,6 @@
     <t>380-387</t>
   </si>
   <si>
-    <t>Mansfield Summit CTK 12 Std RF 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Summit-174-1-28-Round-Toilet-Combination/5002187711</t>
   </si>
   <si>
@@ -329,9 +272,6 @@
     <t>Vanquish</t>
   </si>
   <si>
-    <t>Mansfield Vanquish CTK 12 ADA EL 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-Vanquish-White-WaterSense-Elongated-Comfort-Height-2-Piece-Vitreous-China-Toilet-12-in-Rough-In-Size-with-Slow-Close-ADA-Compliant/1002969010</t>
   </si>
   <si>
@@ -341,9 +281,6 @@
     <t>VX1</t>
   </si>
   <si>
-    <t>Mansfield VX1 CTK 12 Std RF 1,28 gpf</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/Mansfield-VX1-1-28-Round-Complete-Toilet-Kit/1002959738</t>
   </si>
   <si>
@@ -446,120 +383,6 @@
     <t>731AA101S.222</t>
   </si>
   <si>
-    <t>Highline White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Cimarron White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Clean White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Edgemere White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Pro-Flush White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Memoirs White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Pro-Flush White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Pro-Flush White Dual Flush Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Transpose White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Highline White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Laporte Dual Flush White Dual Elongated Chair Height Back-to-wall WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Elliston White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Cimarron White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Mainstream White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Mainstream White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Clean White Dual Flush Elongated Chair Height 2-Piece WaterSense Toilet 12-in Rough-In Size</t>
-  </si>
-  <si>
-    <t>Mainstream White Elongated Chair Height WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Pro-Fit White Round Standard Height 2-piece WaterSense Toilet 12-in Rough-In Size</t>
-  </si>
-  <si>
-    <t>Summit White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Champion 4 White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Memoirs White Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Danville Oyster Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Edgemere White Elongated Chair Height 2-piece WaterSense Toilet 10-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Denali Bone Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Edgemere White Round Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Edgemere White Chair Height 2-Piece WaterSense Toilet 10-in Rough-In Size (ADA Compliant)</t>
-  </si>
-  <si>
-    <t>Pro-Fit White Standard Height 2-Piece WaterSense Toilet 12-in Rough-In Size</t>
-  </si>
-  <si>
-    <t>Champion 4 White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Edgemere Bone Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Summit White Comfort Height 2-Piece WaterSense Toilet 12-in Rough-In Size (ADA Compliant)</t>
-  </si>
-  <si>
-    <t>Danville White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Summit White Elongated Chair Height 2-piece WaterSense Toilet 10-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Edgemere White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size with Bidet (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Vanquish White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Mansfield  Denali White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>White Touchless Flush Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Champion 4 Linen Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
-    <t>Summit White Dual Flush Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
-  </si>
-  <si>
     <t>https://www.lowes.com/pd/KOHLER-Highline-Curve-White-WaterSense-Elongated-Chair-Height-2-Piece-Toilet-12-in-Rough-In-Size/1001097304</t>
   </si>
   <si>
@@ -717,6 +540,159 @@
   </si>
   <si>
     <t>Price Type</t>
+  </si>
+  <si>
+    <t>Consumer Price</t>
+  </si>
+  <si>
+    <t>Alto CTK 12 ADA RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Barret CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Brentwood CTK 12 ADA EL 1,6 gpf</t>
+  </si>
+  <si>
+    <t>Brentwood CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Broadway CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Cascade CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Denali CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Elementary CTK 10 Juvenile - children RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Enso CTK 12 Std - Smartheight EL 1,1 gpf/1,6 gpf</t>
+  </si>
+  <si>
+    <t>Maverick CTK 12 Std - Smartheight EL 1</t>
+  </si>
+  <si>
+    <t>Nyren CTK 12 Std EL 1,6 gpf</t>
+  </si>
+  <si>
+    <t>Pro-Fit CTK 12 Std EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Quantum One CTK 12 ADA EL 1</t>
+  </si>
+  <si>
+    <t>Summit CTK 12 ADA EL 1,1 gpf/1,6 gpf</t>
+  </si>
+  <si>
+    <t>Summit CTK 10 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Summit CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Summit CTK 12 Std RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Vanquish CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>VX1 CTK 12 Std RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Pro-Fit CTK 12 Std RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Watersense</t>
+  </si>
+  <si>
+    <t>Affordable Style</t>
+  </si>
+  <si>
+    <t>Opp</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Highline Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Cimarron Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Clean White Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Edgemere Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Pro-flush Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Memoirs Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Pro-flush Round Front CTK ADA</t>
+  </si>
+  <si>
+    <t>Transpose Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Highline Round Front CTK ADA</t>
+  </si>
+  <si>
+    <t>Laporte Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Elliston Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Cimarron Round Front CTK ADA</t>
+  </si>
+  <si>
+    <t>Mainstream Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Mainstream Round Front CTK ADA</t>
+  </si>
+  <si>
+    <t>Clean White Elongated CTK Standard</t>
+  </si>
+  <si>
+    <t>Champion Round Front CTK ADA</t>
+  </si>
+  <si>
+    <t>Danville Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Edgemere Round Front CTK ADA</t>
+  </si>
+  <si>
+    <t>Edgemere Round Front CTK Standard</t>
+  </si>
+  <si>
+    <t>Champion Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Watersense Elongated CTK ADA</t>
+  </si>
+  <si>
+    <t>Champion Elongated CTK Standard</t>
+  </si>
+  <si>
+    <t>Summit Round CTK (Ada Compliant)</t>
+  </si>
+  <si>
+    <t>Denali Elongated CTK (Ada Compliant)</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Affordable style</t>
   </si>
 </sst>
 </file>
@@ -726,7 +702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,8 +730,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,20 +748,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDBE5F1"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -788,37 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,43 +789,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E03A5B2A-1B72-42BE-A615-B4E96934B9A7}"/>
     <cellStyle name="SAPMemberCell" xfId="2" xr:uid="{02B3FB56-2701-4742-8C0A-4447636D5574}"/>
@@ -942,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C74CA3DB-7283-4D27-89EC-2D476A6AB477}" name="Tabla13" displayName="Tabla13" ref="A1:P34" totalsRowShown="0">
-  <autoFilter ref="A1:P34" xr:uid="{937FA582-0DBE-40B2-9E48-99B4B64862E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C74CA3DB-7283-4D27-89EC-2D476A6AB477}" name="Tabla13" displayName="Tabla13" ref="A1:P27" totalsRowShown="0">
+  <autoFilter ref="A1:P27" xr:uid="{937FA582-0DBE-40B2-9E48-99B4B64862E1}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{57C84A5F-74C7-4880-8EC2-6235F521616B}" name="Fabricante"/>
     <tableColumn id="2" xr3:uid="{64858D45-EE53-48EB-99C7-B2555FC5AC87}" name="Homologo Mansfield"/>
@@ -1267,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E2E6B6-7DBF-44A9-91C4-E969D6191F18}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,8 +1213,8 @@
     <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="118.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="191.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" customWidth="1"/>
+    <col min="14" max="14" width="179.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1298,20 +1226,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>218</v>
+      <c r="C1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>220</v>
+      <c r="F1" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1326,33 +1254,36 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>223</v>
+        <v>163</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1363,26 +1294,31 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>135</v>
+      <c r="M2" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -1394,25 +1330,30 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="N3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -1424,25 +1365,30 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="N4" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>12</v>
@@ -1454,25 +1400,30 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="N5" t="s">
-        <v>176</v>
-      </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>190</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
@@ -1484,25 +1435,30 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="N6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
@@ -1514,25 +1470,30 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="N7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -1544,25 +1505,30 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="N8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>190</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -1574,25 +1540,30 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="N9" t="s">
-        <v>180</v>
-      </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
@@ -1604,25 +1575,30 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="N10" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -1634,25 +1610,30 @@
         <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="N11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>191</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
@@ -1664,25 +1645,30 @@
         <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="N12" t="s">
-        <v>183</v>
-      </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>190</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
@@ -1694,25 +1680,30 @@
         <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="N13" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>190</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>12</v>
@@ -1724,25 +1715,30 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="N14" t="s">
-        <v>185</v>
-      </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>190</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>12</v>
@@ -1754,25 +1750,30 @@
         <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="N15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>3472128020</v>
       </c>
+      <c r="F16" t="s">
+        <v>190</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>12</v>
@@ -1784,25 +1785,30 @@
         <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="N16" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>189</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>12</v>
@@ -1814,25 +1820,30 @@
         <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s">
-        <v>188</v>
-      </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>12</v>
@@ -1844,25 +1855,30 @@
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
-      </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>12</v>
@@ -1874,88 +1890,103 @@
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
-      </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s">
-        <v>123</v>
+      <c r="F20" t="s">
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
         <v>208</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" t="s">
-        <v>155</v>
-      </c>
-      <c r="N20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="N21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" t="s">
-        <v>194</v>
-      </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
+      <c r="F22" t="s">
+        <v>189</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
@@ -1964,25 +1995,30 @@
         <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
-      </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
@@ -1994,28 +2030,33 @@
         <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
-      </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
         <v>10</v>
@@ -2024,25 +2065,30 @@
         <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>12</v>
@@ -2054,25 +2100,30 @@
         <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="N25" t="s">
-        <v>199</v>
-      </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
@@ -2084,25 +2135,30 @@
         <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
-      </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
@@ -2114,25 +2170,30 @@
         <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
-      </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>12</v>
@@ -2144,23 +2205,28 @@
         <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
-      </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H29" t="s">
+        <v>188</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2171,25 +2237,30 @@
         <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s">
-        <v>203</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>12</v>
@@ -2201,12 +2272,14 @@
         <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="N30" t="s">
-        <v>204</v>
-      </c>
-      <c r="P30" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2219,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77712C2E-F2F1-4E89-B579-6E6DFAD7EAE3}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2312,7 @@
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="118.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.140625" customWidth="1"/>
     <col min="14" max="14" width="191.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
@@ -2252,20 +2325,20 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>218</v>
+      <c r="C1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>220</v>
+      <c r="F1" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2280,23 +2353,23 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>223</v>
+        <v>163</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2307,7 +2380,9 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2327,25 +2402,30 @@
         <v>1.28</v>
       </c>
       <c r="M2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2365,52 +2445,60 @@
         <v>1.28</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="24">
+      <c r="F4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4">
         <v>1.28</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="M4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2421,7 +2509,9 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2438,71 +2528,81 @@
         <v>14</v>
       </c>
       <c r="L5">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>1.28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="P6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>1.6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -2517,30 +2617,35 @@
         <v>1.28</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -2555,291 +2660,331 @@
         <v>1.28</v>
       </c>
       <c r="M8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P9" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>1.28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>1.28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="18">
-        <v>1.28</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="P11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>1.28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
-        <v>58</v>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>1.6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14">
-        <v>1.6</v>
-      </c>
-      <c r="M14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2859,25 +3004,30 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2897,177 +3047,202 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="I19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="B20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="12">
+      <c r="I20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="7">
         <v>1.28</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="M20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="9">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21">
         <v>1.28</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="M21" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
@@ -3078,185 +3253,211 @@
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L22">
         <v>1.28</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
         <v>10</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>11</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>1.28</v>
       </c>
-      <c r="M23" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="M24" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="21">
-        <v>1.28</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25">
-        <v>1.28</v>
-      </c>
-      <c r="M25" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="24" t="str">
+      <c r="B25" s="7" t="str">
         <f>Tabla13[[#This Row],[Sku]]</f>
         <v>5130CTK</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="24" t="s">
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L25" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Tabla13[[#This Row],[Sku]]</f>
+        <v>5388CTK</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5388CTK</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
@@ -3265,266 +3466,317 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>1.28</v>
       </c>
       <c r="M27" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="N27" t="s">
-        <v>191</v>
-      </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28">
-        <v>1.28</v>
-      </c>
-      <c r="M28" t="s">
-        <v>158</v>
-      </c>
-      <c r="N28" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="5" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5135CTK</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="9" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5384CTK</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="12" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5385CTK</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="21" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5988CTK</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="N32" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="18" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5916CTK</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="18">
-        <v>1.28</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="20"/>
-    </row>
-    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="15" t="str">
-        <f>Tabla13[[#This Row],[Sku]]</f>
-        <v>5384DFCTK</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P34" s="17"/>
+        <v>137</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N25" r:id="rId1" xr:uid="{C9838C73-EF17-4ADF-AD75-9A1AAD6120CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FA59A0D16900784F9CB3256C519CB83F" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="bb3bec558058d72f80c5b851baa51dbf">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="75fb87cd-36b5-42e2-8fde-3210a15a54f5" xmlns:ns4="169e49bf-86f4-4c82-8145-d54382e1b36d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c52a6d17907b96972bfded59e2216c" ns3:_="" ns4:_="">
+    <xsd:import namespace="75fb87cd-36b5-42e2-8fde-3210a15a54f5"/>
+    <xsd:import namespace="169e49bf-86f4-4c82-8145-d54382e1b36d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75fb87cd-36b5-42e2-8fde-3210a15a54f5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="169e49bf-86f4-4c82-8145-d54382e1b36d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B6CF27-1A7A-4C8F-8157-C6E9A3B26DCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75fb87cd-36b5-42e2-8fde-3210a15a54f5"/>
+    <ds:schemaRef ds:uri="169e49bf-86f4-4c82-8145-d54382e1b36d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FF176AA-C3E1-40C0-9750-0C66C2CBB017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="75fb87cd-36b5-42e2-8fde-3210a15a54f5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="169e49bf-86f4-4c82-8145-d54382e1b36d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE42C835-0C89-4DFD-A46E-6A62403D31B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>